--- a/千鶴/進捗管理.xlsx
+++ b/千鶴/進捗管理.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>subcategory</t>
     <phoneticPr fontId="1"/>
@@ -554,10 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mypage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cart</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,7 +562,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>product</t>
+    <t>cart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowPurchaseHistory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>商品一覧・詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非会員の登録</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン・マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1277,10 +1343,10 @@
   <dimension ref="B1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1473,9 @@
       <c r="S3" s="17"/>
       <c r="T3" s="1"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="17"/>
+      <c r="V3" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="17"/>
@@ -1449,7 +1517,9 @@
       <c r="S4" s="17"/>
       <c r="T4" s="1"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="17"/>
+      <c r="V4" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="17"/>
@@ -1489,7 +1559,9 @@
       <c r="S5" s="17"/>
       <c r="T5" s="1"/>
       <c r="U5" s="21"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="17"/>
@@ -1531,13 +1603,15 @@
       </c>
       <c r="P6" s="34"/>
       <c r="Q6" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R6" s="34"/>
-      <c r="S6" s="17"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="1"/>
       <c r="U6" s="21"/>
-      <c r="V6" s="17"/>
+      <c r="V6" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="17"/>
@@ -1573,7 +1647,9 @@
       <c r="S7" s="17"/>
       <c r="T7" s="1"/>
       <c r="U7" s="21"/>
-      <c r="V7" s="17"/>
+      <c r="V7" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="17"/>
@@ -1608,10 +1684,14 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="26"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="17"/>
+      <c r="S8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="17"/>
@@ -1651,7 +1731,9 @@
       <c r="S9" s="19"/>
       <c r="T9" s="13"/>
       <c r="U9" s="26"/>
-      <c r="V9" s="17"/>
+      <c r="V9" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="17"/>
@@ -1685,13 +1767,15 @@
       <c r="O10" s="35"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="17"/>
       <c r="T10" s="1"/>
       <c r="U10" s="21"/>
-      <c r="V10" s="17"/>
+      <c r="V10" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="17"/>
@@ -1724,14 +1808,18 @@
       <c r="N11" s="36"/>
       <c r="O11" s="35"/>
       <c r="P11" s="34"/>
-      <c r="Q11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="17"/>
+      <c r="Q11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="17"/>
@@ -1762,14 +1850,16 @@
       <c r="N12" s="36"/>
       <c r="O12" s="35"/>
       <c r="P12" s="34"/>
-      <c r="Q12" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="34"/>
+      <c r="Q12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="22"/>
       <c r="S12" s="17"/>
       <c r="T12" s="1"/>
       <c r="U12" s="21"/>
-      <c r="V12" s="17"/>
+      <c r="V12" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="17"/>
